--- a/Assets/Tests/Editor/Gacha3.xlsx
+++ b/Assets/Tests/Editor/Gacha3.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,7 +145,7 @@
     <t>Group4</t>
   </si>
   <si>
-    <t>Array&lt;Float&gt;</t>
+    <t>List&lt;Float&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
